--- a/Tarefas do Projeto Phoenix.xlsx
+++ b/Tarefas do Projeto Phoenix.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
   <si>
     <t>Tarefa</t>
   </si>
@@ -117,6 +117,18 @@
   <si>
     <t>Exercício: criar hello_phoenix</t>
   </si>
+  <si>
+    <t>Semana 2: Entender roteamento (`router.ex`).</t>
+  </si>
+  <si>
+    <t>Semana 2: Criar controllers, views e templates.</t>
+  </si>
+  <si>
+    <t>Semana 2: Introdução aos contexts.</t>
+  </si>
+  <si>
+    <t>Semana 2: **Exercício:** Criar uma página "Olá, Mundo" e uma página de "Usuários".</t>
+  </si>
 </sst>
 </file>
 
@@ -125,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -165,6 +177,12 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -348,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -418,29 +436,17 @@
     <xf borderId="8" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -503,7 +509,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G16" displayName="Tarefas_do_projeto" name="Tarefas_do_projeto" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G18" displayName="Tarefas_do_projeto" name="Tarefas_do_projeto" id="1">
   <tableColumns count="7">
     <tableColumn name="Tarefa" id="1"/>
     <tableColumn name="Prioridade" id="2"/>
@@ -724,7 +730,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="37.38"/>
+    <col customWidth="1" min="1" max="1" width="63.63"/>
     <col customWidth="1" min="2" max="4" width="15.13"/>
     <col customWidth="1" min="5" max="6" width="20.13"/>
     <col customWidth="1" min="7" max="7" width="37.38"/>
@@ -1031,33 +1037,99 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="A15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="13">
+        <v>45894.0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>45894.0</v>
+      </c>
       <c r="G15" s="14"/>
     </row>
     <row r="16">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="A16" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="8">
+        <v>45894.0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>45894.0</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="13">
+        <v>45894.0</v>
+      </c>
+      <c r="F17" s="13">
+        <v>45894.0</v>
+      </c>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="26">
+        <v>45895.0</v>
+      </c>
+      <c r="F18" s="26">
+        <v>45895.0</v>
+      </c>
+      <c r="G18" s="27"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F16">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F18">
       <formula1>OR(NOT(ISERROR(DATEVALUE(E2))), AND(ISNUMBER(E2), LEFT(CELL("format", E2))="D"))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A16 G2:G16"/>
-    <dataValidation type="list" allowBlank="1" sqref="B2:B16">
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A18 G2:G18"/>
+    <dataValidation type="list" allowBlank="1" sqref="B2:B18">
       <formula1>"P0,P1,P2,P3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D16">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D18">
       <formula1>"Não iniciada,Em execução,Bloqueada,Concluída"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1078,10 +1150,14 @@
     <hyperlink r:id="rId14" ref="C12"/>
     <hyperlink r:id="rId15" ref="C13"/>
     <hyperlink r:id="rId16" ref="C14"/>
+    <hyperlink r:id="rId17" ref="C15"/>
+    <hyperlink r:id="rId18" ref="C16"/>
+    <hyperlink r:id="rId19" ref="C17"/>
+    <hyperlink r:id="rId20" ref="C18"/>
   </hyperlinks>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId21"/>
   <tableParts count="1">
-    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>